--- a/src/main/resources/excelimport/ImportTemplate.xlsx
+++ b/src/main/resources/excelimport/ImportTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development_synced\2_Github\fredbet\src\main\resources\excelimport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev_sync\2_Github\fredbet\src\main\resources\excelimport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:E440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1123,7 @@
         <v>217</v>
       </c>
       <c r="D2" s="2">
-        <v>42887.75</v>
+        <v>43252.75</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -2450,7 +2450,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Countries!$A$1:$A$210</xm:f>
           </x14:formula1>

--- a/src/main/resources/excelimport/ImportTemplate.xlsx
+++ b/src/main/resources/excelimport/ImportTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev_sync\2_Github\fredbet\src\main\resources\excelimport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev_sync\1_Github\fredbet\src\main\resources\excelimport\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168E46B-B9BA-49E4-8155-35DE464E840F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
@@ -451,9 +452,6 @@
     <t>FINLAND</t>
   </si>
   <si>
-    <t>FYR_MACEDONIA</t>
-  </si>
-  <si>
     <t>GEORGIA</t>
   </si>
   <si>
@@ -713,12 +711,15 @@
   </si>
   <si>
     <t>GAME_FOR_THIRD</t>
+  </si>
+  <si>
+    <t>MACEDONIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1079,11 +1080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D2" s="2">
         <v>43252.75</v>
@@ -2450,13 +2451,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Countries!$A$1:$A$210</xm:f>
           </x14:formula1>
           <xm:sqref>A2:B440</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Groups!$A$1:$A$13</xm:f>
           </x14:formula1>
@@ -2469,11 +2470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A210"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,7 +2499,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2513,17 +2514,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2533,7 +2534,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2553,7 +2554,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2568,7 +2569,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2583,7 +2584,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2593,7 +2594,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -2603,7 +2604,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2618,12 +2619,12 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -2658,7 +2659,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -2668,7 +2669,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -2683,7 +2684,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -2698,7 +2699,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -2718,12 +2719,12 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -2733,12 +2734,12 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -2763,17 +2764,17 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
@@ -2783,7 +2784,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -2818,7 +2819,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -2833,32 +2834,32 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
@@ -2868,37 +2869,37 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -2913,137 +2914,137 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -3058,12 +3059,12 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
@@ -3093,7 +3094,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
@@ -3108,12 +3109,12 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -3123,12 +3124,12 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
@@ -3158,22 +3159,22 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
@@ -3193,7 +3194,7 @@
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -3213,22 +3214,22 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
@@ -3248,7 +3249,7 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
@@ -3273,12 +3274,12 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -3293,7 +3294,7 @@
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
@@ -3303,7 +3304,7 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
@@ -3328,12 +3329,12 @@
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
@@ -3363,17 +3364,17 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
@@ -3383,7 +3384,7 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -3408,7 +3409,7 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
@@ -3438,12 +3439,12 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
@@ -3463,7 +3464,7 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
@@ -3483,17 +3484,17 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
@@ -3503,12 +3504,12 @@
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -3532,15 +3533,15 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A210">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A210">
+    <sortCondition ref="A1:A210"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3559,62 +3560,62 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
